--- a/biology/Microbiologie/Marinobacter_aromaticivorans/Marinobacter_aromaticivorans.xlsx
+++ b/biology/Microbiologie/Marinobacter_aromaticivorans/Marinobacter_aromaticivorans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marinobacter aromaticivorans est une bactérie à Gram négatif, en forme de bacille, légèrement halotolérante, du genre Marinobacter. Elle a été isolée à partir de sédiments provenant de la Mer de Chine du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type D15-8 de l'espèce Marinobacter aromaticivorans a été isolée dans des sédiments marins prélevé ne Mer de Chine méridionale[2]. Marinobacter aromaticivorans a la capacité de dégrader les hydrocarbures aromatiques polycycliques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type D15-8 de l'espèce Marinobacter aromaticivorans a été isolée dans des sédiments marins prélevé ne Mer de Chine méridionale. Marinobacter aromaticivorans a la capacité de dégrader les hydrocarbures aromatiques polycycliques.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce M. aromaticivorans est la suivante : a.ro.ma.ti.ci.vo’rans. L. masc. adj. aromaticus, aromatique, fragrance ; L. pres. part. vorans, dévorant; N.L. part. adj. aromaticivorans, dévorant les composés aromatiques[3]. Le nouveau nom a été validé également en 2016 par l'ICSP[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce M. aromaticivorans est la suivante : a.ro.ma.ti.ci.vo’rans. L. masc. adj. aromaticus, aromatique, fragrance ; L. pres. part. vorans, dévorant; N.L. part. adj. aromaticivorans, dévorant les composés aromatiques. Le nouveau nom a été validé également en 2016 par l'ICSP.
 </t>
         </is>
       </c>
